--- a/MRV_version2/Claudia/Repositorio Web/Co_beneficios/Formato_captura_datos_INAB.xlsx
+++ b/MRV_version2/Claudia/Repositorio Web/Co_beneficios/Formato_captura_datos_INAB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -777,6 +777,9 @@
     <t>COB-40</t>
   </si>
   <si>
+    <t>Número de beneficiarios jóvenes (menores de 30 años)  directos PINPEP [Año]</t>
+  </si>
+  <si>
     <t>Número de beneficiarios totales directos PINPEP [Año]</t>
   </si>
   <si>
@@ -786,6 +789,9 @@
     <t>COB-41</t>
   </si>
   <si>
+    <t>Número de beneficiarios jóvenes (menores de 30 años) directos PROBOSQUE [Año]</t>
+  </si>
+  <si>
     <t>Número de beneficiarios totales directos PROBOSQUE [Año]</t>
   </si>
   <si>
@@ -844,19 +850,13 @@
   </si>
   <si>
     <t>No se cuenta con datos público Políticas forestales si nembargo en el reporte anual del 2019 se reportan 6 política desarrolladas. El reporte anual del 2018 no contiene información respecto a este indicador</t>
-  </si>
-  <si>
-    <t>Número de beneficiarios jóvenes (menores de 30 años)  directos PINPEP [Año]</t>
-  </si>
-  <si>
-    <t>Número de beneficiarios jóvenes (menores de 30 años) directos PROBOSQUE [Año]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,7 +1245,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD8D8D8"/>
@@ -1768,7 +1768,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2067,11 +2067,11 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="6" topLeftCell="D7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2086,7 +2086,7 @@
     <col min="15" max="15" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18.75">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2124,7 +2124,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="1:15" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="70.900000000000006" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2162,7 +2162,7 @@
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="4">
         <f>+COUNTA(INAB[Id Indicador])</f>
@@ -2200,7 +2200,7 @@
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="25.5">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="30">
       <c r="A7" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-01INAB</v>
@@ -2294,7 +2294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30">
       <c r="A8" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-02INAB</v>
@@ -2341,7 +2341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="30">
       <c r="A9" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-03INAB</v>
@@ -2388,7 +2388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="36">
       <c r="A10" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-04INAB</v>
@@ -2435,7 +2435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="36">
       <c r="A11" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-05INAB</v>
@@ -2482,7 +2482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="30">
       <c r="A12" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-06INAB</v>
@@ -2529,7 +2529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="30">
       <c r="A13" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-07INAB</v>
@@ -2576,7 +2576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="36">
       <c r="A14" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-08INAB</v>
@@ -2623,7 +2623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="36">
       <c r="A15" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-09INAB</v>
@@ -2670,7 +2670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="36">
       <c r="A16" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-10INAB</v>
@@ -2717,7 +2717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="36">
       <c r="A17" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-11INAB</v>
@@ -2764,7 +2764,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="36">
       <c r="A18" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-12INAB</v>
@@ -2811,7 +2811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="36">
       <c r="A19" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-13INAB</v>
@@ -2858,7 +2858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30">
       <c r="A20" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-14INAB</v>
@@ -2905,7 +2905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="30">
       <c r="A21" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-15INAB</v>
@@ -2952,7 +2952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30">
       <c r="A22" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-16INAB</v>
@@ -2999,7 +2999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="30">
       <c r="A23" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-17INAB</v>
@@ -3046,7 +3046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="36">
       <c r="A24" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-18INAB</v>
@@ -3093,7 +3093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="36">
       <c r="A25" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-19INAB</v>
@@ -3140,7 +3140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="36">
       <c r="A26" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-20INAB</v>
@@ -3187,7 +3187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="36">
       <c r="A27" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-21INAB</v>
@@ -3234,7 +3234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="45">
       <c r="A28" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-22INAB</v>
@@ -3281,7 +3281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="45">
       <c r="A29" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-23INAB</v>
@@ -3328,7 +3328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="30">
       <c r="A30" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-25INAB</v>
@@ -3375,7 +3375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="30">
       <c r="A31" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-26INAB</v>
@@ -3422,7 +3422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="30">
       <c r="A32" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-27INAB</v>
@@ -3469,7 +3469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-28INAB</v>
@@ -3516,7 +3516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="30">
       <c r="A34" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-29INAB</v>
@@ -3563,7 +3563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="30">
       <c r="A35" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-30INAB</v>
@@ -3610,7 +3610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="30">
       <c r="A36" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-31INAB</v>
@@ -3657,7 +3657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="30">
       <c r="A37" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-32INAB</v>
@@ -3704,7 +3704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="30">
       <c r="A38" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-33INAB</v>
@@ -3751,7 +3751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="48">
       <c r="A39" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-40INAB</v>
@@ -3763,14 +3763,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>110</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>110</v>
@@ -3790,23 +3790,23 @@
         <v>30/6/2020</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="36">
       <c r="A40" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-41INAB</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>110</v>
@@ -3815,7 +3815,7 @@
         <v>60</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>110</v>
@@ -3837,26 +3837,26 @@
       <c r="N40" s="16"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="48">
       <c r="A41" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-42INAB</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>110</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>110</v>
@@ -3876,30 +3876,30 @@
         <v>30/6/2020</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="48">
       <c r="A42" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-43INAB</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>110</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>110</v>
@@ -3919,35 +3919,35 @@
         <v>30/6/2020</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="24">
       <c r="A43" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-44INAB</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F43" s="19">
         <v>27799</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15">
@@ -3966,29 +3966,29 @@
       <c r="N43" s="16"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="48">
       <c r="A44" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-45INAB</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15">
@@ -4005,35 +4005,35 @@
         <v>30/6/2020</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="1:15" ht="84" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="84">
       <c r="A45" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-46INAB</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F45" s="19">
         <v>294</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I45" s="15">
         <v>300</v>
@@ -4052,35 +4052,35 @@
         <v>30/6/2020</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="75">
       <c r="A46" s="9" t="str">
         <f>+INAB[[#This Row],[Id Indicador]]&amp;INAB[[#This Row],[Responsable ]]</f>
         <v>COB-48INAB</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I46" s="15">
         <v>6</v>
@@ -4099,10 +4099,10 @@
         <v>30/6/2020</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
